--- a/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>004769</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>申万菱信价值优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>006926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>长城量化精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006926</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城量化精选股票A</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.67</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011463</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城量化精选股票C</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.67</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004769</t>
+          <t>011463</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信价值优先混合</t>
+          <t>长城量化精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.28</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
@@ -846,12 +846,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -877,13 +972,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,247 +453,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004769</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信价值优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,180 +757,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>004769</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>申万菱信价值优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0411</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>159617</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>华夏中证智选500价值稳健策略ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>97.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -626,6 +643,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -757,7 +868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601997-贵阳银行.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,36 +622,302 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>159617</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>华夏中证智选500价值稳健策略ETF</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -699,36 +982,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>159617</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>华夏中证智选500价值稳健策略ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>97.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -737,6 +1020,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -868,7 +1245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
